--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.045113666666667</v>
+        <v>0.6504219999999999</v>
       </c>
       <c r="H2">
-        <v>6.135341</v>
+        <v>1.951266</v>
       </c>
       <c r="I2">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="J2">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N2">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q2">
-        <v>27.77179350775256</v>
+        <v>18.35754933651267</v>
       </c>
       <c r="R2">
-        <v>249.946141569773</v>
+        <v>165.217944028614</v>
       </c>
       <c r="S2">
-        <v>0.08260981872355172</v>
+        <v>0.05808399580857024</v>
       </c>
       <c r="T2">
-        <v>0.08260981872355172</v>
+        <v>0.05808399580857024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.045113666666667</v>
+        <v>0.6504219999999999</v>
       </c>
       <c r="H3">
-        <v>6.135341</v>
+        <v>1.951266</v>
       </c>
       <c r="I3">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="J3">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>19.768727</v>
       </c>
       <c r="N3">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q3">
-        <v>40.42929376030234</v>
+        <v>12.858014952794</v>
       </c>
       <c r="R3">
-        <v>363.8636438427211</v>
+        <v>115.722134575146</v>
       </c>
       <c r="S3">
-        <v>0.1202607468519262</v>
+        <v>0.04068325640499115</v>
       </c>
       <c r="T3">
-        <v>0.1202607468519262</v>
+        <v>0.04068325640499115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.045113666666667</v>
+        <v>0.6504219999999999</v>
       </c>
       <c r="H4">
-        <v>6.135341</v>
+        <v>1.951266</v>
       </c>
       <c r="I4">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="J4">
-        <v>0.3607891451960052</v>
+        <v>0.1521898546336546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N4">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O4">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P4">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q4">
-        <v>53.08911521686377</v>
+        <v>16.88430773330267</v>
       </c>
       <c r="R4">
-        <v>477.802036951774</v>
+        <v>151.958769599724</v>
       </c>
       <c r="S4">
-        <v>0.1579185796205274</v>
+        <v>0.05342260242009322</v>
       </c>
       <c r="T4">
-        <v>0.1579185796205274</v>
+        <v>0.05342260242009321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>5.611188</v>
       </c>
       <c r="I5">
-        <v>0.3299662923469261</v>
+        <v>0.437647089654669</v>
       </c>
       <c r="J5">
-        <v>0.3299662923469261</v>
+        <v>0.4376470896546689</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N5">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O5">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P5">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q5">
-        <v>25.39920021872934</v>
+        <v>52.79016830429467</v>
       </c>
       <c r="R5">
-        <v>228.592801968564</v>
+        <v>475.111514738652</v>
       </c>
       <c r="S5">
-        <v>0.07555231624513922</v>
+        <v>0.1670301333970354</v>
       </c>
       <c r="T5">
-        <v>0.07555231624513922</v>
+        <v>0.1670301333970354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.611188</v>
       </c>
       <c r="I6">
-        <v>0.3299662923469261</v>
+        <v>0.437647089654669</v>
       </c>
       <c r="J6">
-        <v>0.3299662923469261</v>
+        <v>0.4376470896546689</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>19.768727</v>
       </c>
       <c r="N6">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O6">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P6">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q6">
-        <v>36.97534790589201</v>
+        <v>36.975347905892</v>
       </c>
       <c r="R6">
-        <v>332.7781311530281</v>
+        <v>332.778131153028</v>
       </c>
       <c r="S6">
-        <v>0.1099866591940963</v>
+        <v>0.1169914302512366</v>
       </c>
       <c r="T6">
-        <v>0.1099866591940963</v>
+        <v>0.1169914302512366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.611188</v>
       </c>
       <c r="I7">
-        <v>0.3299662923469261</v>
+        <v>0.437647089654669</v>
       </c>
       <c r="J7">
-        <v>0.3299662923469261</v>
+        <v>0.4376470896546689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N7">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O7">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P7">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q7">
-        <v>48.55361849251466</v>
+        <v>48.55361849251467</v>
       </c>
       <c r="R7">
         <v>436.982566432632</v>
       </c>
       <c r="S7">
-        <v>0.1444273169076906</v>
+        <v>0.1536255260063969</v>
       </c>
       <c r="T7">
-        <v>0.1444273169076906</v>
+        <v>0.1536255260063969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>5.258808</v>
       </c>
       <c r="I8">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="J8">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N8">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O8">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P8">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q8">
-        <v>23.804142242936</v>
+        <v>49.474970255848</v>
       </c>
       <c r="R8">
-        <v>214.237280186424</v>
+        <v>445.274732302632</v>
       </c>
       <c r="S8">
-        <v>0.07080766587903811</v>
+        <v>0.156540718605293</v>
       </c>
       <c r="T8">
-        <v>0.07080766587903811</v>
+        <v>0.156540718605293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.258808</v>
       </c>
       <c r="I9">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="J9">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>19.768727</v>
       </c>
       <c r="N9">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O9">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P9">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q9">
         <v>34.653313232472</v>
       </c>
       <c r="R9">
-        <v>311.8798190922481</v>
+        <v>311.879819092248</v>
       </c>
       <c r="S9">
-        <v>0.1030795480855724</v>
+        <v>0.1096444227740445</v>
       </c>
       <c r="T9">
-        <v>0.1030795480855724</v>
+        <v>0.1096444227740445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.258808</v>
       </c>
       <c r="I10">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="J10">
-        <v>0.3092445624570686</v>
+        <v>0.4101630557116764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N10">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O10">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P10">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q10">
-        <v>45.50447380436799</v>
+        <v>45.504473804368</v>
       </c>
       <c r="R10">
         <v>409.540264239312</v>
       </c>
       <c r="S10">
-        <v>0.1353573484924581</v>
+        <v>0.1439779143323389</v>
       </c>
       <c r="T10">
-        <v>0.1353573484924581</v>
+        <v>0.1439779143323389</v>
       </c>
     </row>
   </sheetData>
